--- a/biology/Biologie cellulaire et moléculaire/Récepteur_(cellule)/Récepteur_(cellule).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_(cellule)/Récepteur_(cellule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_(cellule)</t>
+          <t>Récepteur_(cellule)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neurones récepteurs (ou sensoriels) constituent le premier niveau cellulaire du système nerveux de la perception. Ils transduisent des signaux physiques (lumière, son, température, pression, tension mécanique...) en signaux chimiques (neurotransmetteurs) transmis à un neurone postsynaptique qui convertira le message en signal nerveux transmis sous forme de trains de potentiel d'action.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_(cellule)</t>
+          <t>Récepteur_(cellule)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des récepteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">photorécepteur (vision)
 bâtonnet
